--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.95626265350004</v>
+        <v>2.278478666666667</v>
       </c>
       <c r="H2">
-        <v>1.95626265350004</v>
+        <v>6.835436000000001</v>
       </c>
       <c r="I2">
-        <v>0.005557202184746384</v>
+        <v>0.006425134583531504</v>
       </c>
       <c r="J2">
-        <v>0.005557202184746384</v>
+        <v>0.006425134583531504</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="N2">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="O2">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="P2">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="Q2">
-        <v>0.5059123576053245</v>
+        <v>1.609958595501778</v>
       </c>
       <c r="R2">
-        <v>0.5059123576053245</v>
+        <v>14.489627359516</v>
       </c>
       <c r="S2">
-        <v>1.062178165809426E-05</v>
+        <v>3.333259344906234E-05</v>
       </c>
       <c r="T2">
-        <v>1.062178165809426E-05</v>
+        <v>3.333259344906234E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.95626265350004</v>
+        <v>2.278478666666667</v>
       </c>
       <c r="H3">
-        <v>1.95626265350004</v>
+        <v>6.835436000000001</v>
       </c>
       <c r="I3">
-        <v>0.005557202184746384</v>
+        <v>0.006425134583531504</v>
       </c>
       <c r="J3">
-        <v>0.005557202184746384</v>
+        <v>0.006425134583531504</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="N3">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="O3">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="P3">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="Q3">
-        <v>218.8405825706982</v>
+        <v>255.0346893071911</v>
       </c>
       <c r="R3">
-        <v>218.8405825706982</v>
+        <v>2295.31220376472</v>
       </c>
       <c r="S3">
-        <v>0.004594623655762703</v>
+        <v>0.005280239900477082</v>
       </c>
       <c r="T3">
-        <v>0.004594623655762703</v>
+        <v>0.005280239900477082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.95626265350004</v>
+        <v>2.278478666666667</v>
       </c>
       <c r="H4">
-        <v>1.95626265350004</v>
+        <v>6.835436000000001</v>
       </c>
       <c r="I4">
-        <v>0.005557202184746384</v>
+        <v>0.006425134583531504</v>
       </c>
       <c r="J4">
-        <v>0.005557202184746384</v>
+        <v>0.006425134583531504</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="N4">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="O4">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="P4">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="Q4">
-        <v>45.3414217953519</v>
+        <v>53.68825991079334</v>
       </c>
       <c r="R4">
-        <v>45.3414217953519</v>
+        <v>483.19433919714</v>
       </c>
       <c r="S4">
-        <v>0.0009519567473255871</v>
+        <v>0.00111156208960536</v>
       </c>
       <c r="T4">
-        <v>0.0009519567473255871</v>
+        <v>0.00111156208960536</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>343.822707916942</v>
+        <v>346.0613606666668</v>
       </c>
       <c r="H5">
-        <v>343.822707916942</v>
+        <v>1038.184082</v>
       </c>
       <c r="I5">
-        <v>0.9767054031231133</v>
+        <v>0.975866418664458</v>
       </c>
       <c r="J5">
-        <v>0.9767054031231133</v>
+        <v>0.9758664186644579</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="N5">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="O5">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="P5">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="Q5">
-        <v>88.91656570210318</v>
+        <v>244.5247657251158</v>
       </c>
       <c r="R5">
-        <v>88.91656570210318</v>
+        <v>2200.722891526042</v>
       </c>
       <c r="S5">
-        <v>0.001866829960718462</v>
+        <v>0.005062642372863122</v>
       </c>
       <c r="T5">
-        <v>0.001866829960718462</v>
+        <v>0.005062642372863121</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>343.822707916942</v>
+        <v>346.0613606666668</v>
       </c>
       <c r="H6">
-        <v>343.822707916942</v>
+        <v>1038.184082</v>
       </c>
       <c r="I6">
-        <v>0.9767054031231133</v>
+        <v>0.975866418664458</v>
       </c>
       <c r="J6">
-        <v>0.9767054031231133</v>
+        <v>0.9758664186644579</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="N6">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="O6">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="P6">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="Q6">
-        <v>38462.30032912963</v>
+        <v>38735.34252921708</v>
       </c>
       <c r="R6">
-        <v>38462.30032912963</v>
+        <v>348618.0827629537</v>
       </c>
       <c r="S6">
-        <v>0.8075275292697498</v>
+        <v>0.8019767888714884</v>
       </c>
       <c r="T6">
-        <v>0.8075275292697498</v>
+        <v>0.8019767888714884</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>343.822707916942</v>
+        <v>346.0613606666668</v>
       </c>
       <c r="H7">
-        <v>343.822707916942</v>
+        <v>1038.184082</v>
       </c>
       <c r="I7">
-        <v>0.9767054031231133</v>
+        <v>0.975866418664458</v>
       </c>
       <c r="J7">
-        <v>0.9767054031231133</v>
+        <v>0.9758664186644579</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="N7">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="O7">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="P7">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="Q7">
-        <v>7968.976146730814</v>
+        <v>8154.314783967606</v>
       </c>
       <c r="R7">
-        <v>7968.976146730814</v>
+        <v>73388.83305570846</v>
       </c>
       <c r="S7">
-        <v>0.1673110438926451</v>
+        <v>0.1688269874201064</v>
       </c>
       <c r="T7">
-        <v>0.1673110438926451</v>
+        <v>0.1688269874201064</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.24396983465292</v>
+        <v>6.279762333333333</v>
       </c>
       <c r="H8">
-        <v>6.24396983465292</v>
+        <v>18.839287</v>
       </c>
       <c r="I8">
-        <v>0.0177373946921402</v>
+        <v>0.01770844675201047</v>
       </c>
       <c r="J8">
-        <v>0.0177373946921402</v>
+        <v>0.01770844675201047</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="N8">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="O8">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="P8">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="Q8">
-        <v>1.614763484961516</v>
+        <v>4.437240292905222</v>
       </c>
       <c r="R8">
-        <v>1.614763484961516</v>
+        <v>39.93516263614699</v>
       </c>
       <c r="S8">
-        <v>3.390244359301666E-05</v>
+        <v>9.186865248115925E-05</v>
       </c>
       <c r="T8">
-        <v>3.390244359301666E-05</v>
+        <v>9.186865248115925E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.24396983465292</v>
+        <v>6.279762333333333</v>
       </c>
       <c r="H9">
-        <v>6.24396983465292</v>
+        <v>18.839287</v>
       </c>
       <c r="I9">
-        <v>0.0177373946921402</v>
+        <v>0.01770844675201047</v>
       </c>
       <c r="J9">
-        <v>0.0177373946921402</v>
+        <v>0.01770844675201047</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="N9">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="O9">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="P9">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="Q9">
-        <v>698.4920934438742</v>
+        <v>702.9063993597489</v>
       </c>
       <c r="R9">
-        <v>698.4920934438742</v>
+        <v>6326.157594237739</v>
       </c>
       <c r="S9">
-        <v>0.01466505096175954</v>
+        <v>0.01455297875862479</v>
       </c>
       <c r="T9">
-        <v>0.01466505096175954</v>
+        <v>0.01455297875862479</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.24396983465292</v>
+        <v>6.279762333333333</v>
       </c>
       <c r="H10">
-        <v>6.24396983465292</v>
+        <v>18.839287</v>
       </c>
       <c r="I10">
-        <v>0.0177373946921402</v>
+        <v>0.01770844675201047</v>
       </c>
       <c r="J10">
-        <v>0.0177373946921402</v>
+        <v>0.01770844675201047</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="N10">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="O10">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="P10">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="Q10">
-        <v>144.7200709188644</v>
+        <v>147.9713272116117</v>
       </c>
       <c r="R10">
-        <v>144.7200709188644</v>
+        <v>1331.741944904505</v>
       </c>
       <c r="S10">
-        <v>0.003038441286787646</v>
+        <v>0.003063599340904529</v>
       </c>
       <c r="T10">
-        <v>0.003038441286787646</v>
+        <v>0.003063599340904529</v>
       </c>
     </row>
   </sheetData>
